--- a/test.xlsx
+++ b/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="1">
   <si>
     <t/>
   </si>
@@ -366,7 +366,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -402,6 +402,438 @@
         <v>0</v>
       </c>
     </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="A38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,41 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="1">
-  <si>
-    <t/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -54,27 +46,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -362,291 +416,343 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>2023-03-27</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BNDX</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">48.89
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>2023-03-27</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>EGIS</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="n"/>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">33.0214
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>2023-03-27</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>EPP</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">42.62
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2023-03-27</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>EWC</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">32.99
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>2023-03-27</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>EWD</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">33.81
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>2023-03-27</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>EWJ</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n"/>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">57.38
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="18.75" customHeight="1">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>2023-03-27</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>EWL</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">44.03
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="3" t="n"/>
+      <c r="C8" s="3" t="n"/>
+      <c r="D8" s="3" t="n"/>
+    </row>
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="3" t="n"/>
+      <c r="C9" s="3" t="n"/>
+      <c r="D9" s="3" t="n"/>
+    </row>
+    <row r="10" ht="18.75" customHeight="1">
+      <c r="A10" s="3" t="n"/>
+      <c r="B10" s="3" t="n"/>
+      <c r="C10" s="3" t="n"/>
+      <c r="D10" s="3" t="n"/>
+    </row>
+    <row r="11" ht="18.75" customHeight="1">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="3" t="n"/>
+      <c r="C11" s="3" t="n"/>
+      <c r="D11" s="3" t="n"/>
+    </row>
+    <row r="12" ht="18.75" customHeight="1">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="3" t="n"/>
+      <c r="C12" s="3" t="n"/>
+      <c r="D12" s="3" t="n"/>
+    </row>
+    <row r="13" ht="18.75" customHeight="1">
+      <c r="A13" s="3" t="n"/>
+      <c r="B13" s="3" t="n"/>
+      <c r="C13" s="3" t="n"/>
+      <c r="D13" s="3" t="n"/>
+    </row>
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="3" t="n"/>
+      <c r="C14" s="3" t="n"/>
+      <c r="D14" s="3" t="n"/>
+    </row>
+    <row r="15" ht="18.75" customHeight="1">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="3" t="n"/>
+      <c r="C15" s="3" t="n"/>
+      <c r="D15" s="3" t="n"/>
+    </row>
+    <row r="16" ht="18.75" customHeight="1">
+      <c r="A16" s="3" t="n"/>
+      <c r="B16" s="3" t="n"/>
+      <c r="C16" s="3" t="n"/>
+      <c r="D16" s="3" t="n"/>
+    </row>
+    <row r="17" ht="18.75" customHeight="1">
+      <c r="A17" s="3" t="n"/>
+      <c r="B17" s="3" t="n"/>
+      <c r="C17" s="3" t="n"/>
+      <c r="D17" s="3" t="n"/>
+    </row>
+    <row r="18" ht="18.75" customHeight="1">
+      <c r="A18" s="3" t="n"/>
+      <c r="B18" s="3" t="n"/>
+      <c r="C18" s="3" t="n"/>
+      <c r="D18" s="3" t="n"/>
+    </row>
+    <row r="19" ht="18.75" customHeight="1">
+      <c r="A19" s="3" t="n"/>
+      <c r="B19" s="3" t="n"/>
+      <c r="C19" s="3" t="n"/>
+      <c r="D19" s="3" t="n"/>
+    </row>
+    <row r="20" ht="18.75" customHeight="1">
+      <c r="A20" s="3" t="n"/>
+      <c r="B20" s="3" t="n"/>
+      <c r="C20" s="3" t="n"/>
+      <c r="D20" s="3" t="n"/>
+    </row>
+    <row r="21" ht="18.75" customHeight="1">
+      <c r="A21" s="3" t="n"/>
+      <c r="B21" s="3" t="n"/>
+      <c r="C21" s="3" t="n"/>
+      <c r="D21" s="3" t="n"/>
+    </row>
+    <row r="22" ht="18.75" customHeight="1">
+      <c r="A22" s="3" t="n"/>
+      <c r="B22" s="3" t="n"/>
+      <c r="C22" s="3" t="n"/>
+      <c r="D22" s="3" t="n"/>
+    </row>
+    <row r="23" ht="18.75" customHeight="1">
+      <c r="A23" s="3" t="n"/>
+      <c r="B23" s="3" t="n"/>
+      <c r="C23" s="3" t="n"/>
+      <c r="D23" s="3" t="n"/>
+    </row>
+    <row r="24" ht="18.75" customHeight="1">
+      <c r="A24" s="3" t="n"/>
+      <c r="B24" s="3" t="n"/>
+      <c r="C24" s="3" t="n"/>
+      <c r="D24" s="3" t="n"/>
+    </row>
+    <row r="25" ht="18.75" customHeight="1">
+      <c r="A25" s="3" t="n"/>
+      <c r="B25" s="3" t="n"/>
+      <c r="C25" s="3" t="n"/>
+      <c r="D25" s="3" t="n"/>
+    </row>
+    <row r="26" ht="18.75" customHeight="1">
+      <c r="A26" s="3" t="n"/>
+      <c r="B26" s="3" t="n"/>
+      <c r="C26" s="3" t="n"/>
+      <c r="D26" s="3" t="n"/>
+    </row>
+    <row r="27" ht="18.75" customHeight="1">
+      <c r="A27" s="3" t="n"/>
+      <c r="B27" s="3" t="n"/>
+      <c r="C27" s="3" t="n"/>
+      <c r="D27" s="3" t="n"/>
+    </row>
+    <row r="28" ht="18.75" customHeight="1">
+      <c r="A28" s="3" t="n"/>
+      <c r="B28" s="3" t="n"/>
+      <c r="C28" s="3" t="n"/>
+      <c r="D28" s="3" t="n"/>
+    </row>
+    <row r="29" ht="18.75" customHeight="1">
+      <c r="A29" s="3" t="n"/>
+      <c r="B29" s="3" t="n"/>
+      <c r="C29" s="3" t="n"/>
+      <c r="D29" s="3" t="n"/>
+    </row>
+    <row r="30" ht="18.75" customHeight="1">
+      <c r="A30" s="3" t="n"/>
+      <c r="B30" s="3" t="n"/>
+      <c r="C30" s="3" t="n"/>
+      <c r="D30" s="3" t="n"/>
+    </row>
+    <row r="31" ht="18.75" customHeight="1">
+      <c r="A31" s="3" t="n"/>
+      <c r="B31" s="3" t="n"/>
+      <c r="C31" s="3" t="n"/>
+      <c r="D31" s="3" t="n"/>
+    </row>
+    <row r="32" ht="18.75" customHeight="1">
+      <c r="A32" s="3" t="n"/>
+      <c r="B32" s="3" t="n"/>
+      <c r="C32" s="3" t="n"/>
+      <c r="D32" s="3" t="n"/>
+    </row>
+    <row r="33" ht="18.75" customHeight="1">
+      <c r="A33" s="3" t="n"/>
+      <c r="B33" s="3" t="n"/>
+      <c r="C33" s="3" t="n"/>
+      <c r="D33" s="3" t="n"/>
+    </row>
+    <row r="34" ht="18.75" customHeight="1">
+      <c r="A34" s="3" t="n"/>
+      <c r="B34" s="3" t="n"/>
+      <c r="C34" s="3" t="n"/>
+      <c r="D34" s="3" t="n"/>
+    </row>
+    <row r="35" ht="18.75" customHeight="1">
+      <c r="A35" s="3" t="n"/>
+      <c r="B35" s="3" t="n"/>
+      <c r="C35" s="3" t="n"/>
+      <c r="D35" s="3" t="n"/>
+    </row>
+    <row r="36" ht="18.75" customHeight="1">
+      <c r="A36" s="3" t="n"/>
+      <c r="B36" s="3" t="n"/>
+      <c r="C36" s="3" t="n"/>
+      <c r="D36" s="3" t="n"/>
+    </row>
+    <row r="37" ht="18.75" customHeight="1">
+      <c r="A37" s="3" t="n"/>
+      <c r="B37" s="3" t="n"/>
+      <c r="C37" s="3" t="n"/>
+      <c r="D37" s="3" t="n"/>
+    </row>
+    <row r="38" ht="18.75" customHeight="1">
+      <c r="A38" s="3" t="n"/>
+      <c r="B38" s="3" t="n"/>
+      <c r="C38" s="3" t="n"/>
+      <c r="D38" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -407,7 +407,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2023-04-21</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -416,11 +416,11 @@
         </is>
       </c>
       <c r="D1" t="n">
-        <v>99.83</v>
+        <v>100.61</v>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>2023-04-17</t>
+          <t>2023-04-22</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
@@ -429,11 +429,11 @@
         </is>
       </c>
       <c r="J1" t="n">
-        <v>100.62</v>
+        <v>100.61</v>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>2023-04-18</t>
+          <t>2023-04-23</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
@@ -442,11 +442,11 @@
         </is>
       </c>
       <c r="P1" t="n">
-        <v>101.1</v>
+        <v>100.61</v>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>2023-04-19</t>
+          <t>2023-04-24</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
@@ -455,13 +455,13 @@
         </is>
       </c>
       <c r="V1" t="n">
-        <v>101.02</v>
+        <v>100.85</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2023-04-21</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -470,11 +470,11 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>75.18000000000001</v>
+        <v>76.56999999999999</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2023-04-17</t>
+          <t>2023-04-22</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -483,11 +483,11 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>75.66</v>
+        <v>76.56999999999999</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2023-04-18</t>
+          <t>2023-04-23</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -496,11 +496,11 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>75.89</v>
+        <v>76.56999999999999</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>2023-04-19</t>
+          <t>2023-04-24</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -509,13 +509,13 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>75.84</v>
+        <v>76.88</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2023-04-21</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -524,11 +524,11 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5.26</v>
+        <v>5.23</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2023-04-17</t>
+          <t>2023-04-22</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -537,11 +537,11 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>5.24</v>
+        <v>5.23</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2023-04-18</t>
+          <t>2023-04-23</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -550,11 +550,11 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>5.25</v>
+        <v>5.23</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2023-04-19</t>
+          <t>2023-04-24</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -569,7 +569,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2023-04-17</t>
+          <t>2023-04-22</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -578,13 +578,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>100.62</v>
+        <v>100.61</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2023-04-17</t>
+          <t>2023-04-22</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -593,13 +593,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>75.66</v>
+        <v>76.56999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2023-04-17</t>
+          <t>2023-04-22</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -608,13 +608,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5.24</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2023-04-18</t>
+          <t>2023-04-23</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -623,13 +623,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>101.1</v>
+        <v>100.61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2023-04-18</t>
+          <t>2023-04-23</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>75.89</v>
+        <v>76.56999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2023-04-18</t>
+          <t>2023-04-23</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5.25</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2023-04-19</t>
+          <t>2023-04-24</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -668,13 +668,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>101.02</v>
+        <v>100.85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2023-04-19</t>
+          <t>2023-04-24</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -683,13 +683,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>75.84</v>
+        <v>76.88</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2023-04-19</t>
+          <t>2023-04-24</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,7 +712,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,7 +723,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>2023-04-17</t>
+          <t>2023-04-24</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -732,39 +732,13 @@
         </is>
       </c>
       <c r="D1" t="n">
-        <v>100.62</v>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>2023-04-18</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>XLI</t>
-        </is>
-      </c>
-      <c r="J1" t="n">
-        <v>101.1</v>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>2023-04-19</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>XLI</t>
-        </is>
-      </c>
-      <c r="P1" t="n">
-        <v>101.02</v>
+        <v>100.85</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2023-04-17</t>
+          <t>2023-04-24</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -773,39 +747,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>75.66</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2023-04-18</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>XLP</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
-        <v>75.89</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>2023-04-19</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>XLP</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
-        <v>75.84</v>
+        <v>76.88</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2023-04-17</t>
+          <t>2023-04-24</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -814,122 +762,6 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2023-04-18</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VWEAX</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>2023-04-19</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>VWEAX</t>
-        </is>
-      </c>
-      <c r="P3" t="n">
-        <v>5.23</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2023-04-18</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>XLI</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>101.1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2023-04-18</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>XLP</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>75.89</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2023-04-18</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>VWEAX</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2023-04-19</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>XLI</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>101.02</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2023-04-19</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>XLP</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>75.84</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2023-04-19</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>VWEAX</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
         <v>5.23</v>
       </c>
     </row>
